--- a/data/TablaDesarrolloBtu0200335.xlsx
+++ b/data/TablaDesarrolloBtu0200335.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvarodiaz/my_repos/intro-fin-python/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{894EBFBF-C635-B041-9F5D-98A3EBE690AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A932D2-9FCF-0344-8CC2-9754B4C4AB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,29 +22,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>N°</t>
+    <t>numero</t>
   </si>
   <si>
-    <t>Fecha</t>
+    <t>fecha</t>
   </si>
   <si>
-    <t>Interés</t>
+    <t>interes</t>
   </si>
   <si>
-    <t>Amort.</t>
+    <t>amortizacion</t>
   </si>
   <si>
-    <t>Flujo</t>
+    <t>flujo</t>
   </si>
   <si>
-    <t>Cap. Insol.</t>
+    <t>capital_insoluto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -55,24 +55,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF13183A"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -80,34 +78,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,847 +410,854 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="8.83203125" style="2"/>
+    <col min="6" max="6" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
         <v>42064</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
         <v>42248</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>42430</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>42614</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>42795</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>42979</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>43160</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>43344</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>43525</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>43709</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>43891</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>44075</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>44256</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>44440</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>44621</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>44805</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>44986</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>45170</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>45352</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>45536</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>45717</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>45901</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>46082</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>46266</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>46447</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>46631</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>46813</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>46997</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>47178</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>47362</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>47543</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>47727</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>47908</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>48092</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <v>48274</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>48458</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>48639</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <v>48823</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>49004</v>
       </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>49188</v>
       </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>49369</v>
       </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>100</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
         <v>101</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="3">
         <v>0</v>
       </c>
     </row>
